--- a/发货笔记&日志.xlsx
+++ b/发货笔记&日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="16" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="2023.02.17" sheetId="1" r:id="rId1"/>
@@ -29,16 +29,19 @@
     <sheet name="2023.04.12" sheetId="24" r:id="rId20"/>
     <sheet name="2023.04.16" sheetId="25" r:id="rId21"/>
     <sheet name="2023.04.17" sheetId="26" r:id="rId22"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId23"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId24"/>
-    <sheet name="兼容性报表" sheetId="6" r:id="rId25"/>
+    <sheet name="2023.05.06" sheetId="27" r:id="rId23"/>
+    <sheet name="2023.05.08" sheetId="28" r:id="rId24"/>
+    <sheet name="2023.05.13" sheetId="29" r:id="rId25"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId26"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId27"/>
+    <sheet name="兼容性报表" sheetId="6" r:id="rId28"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="211">
   <si>
     <t>0217 发货</t>
   </si>
@@ -596,6 +599,54 @@
   </si>
   <si>
     <t>深圳兴诚捷面板</t>
+  </si>
+  <si>
+    <t>05.06 发货笔记</t>
+  </si>
+  <si>
+    <t>无锡道纪面板</t>
+  </si>
+  <si>
+    <t>东莞壹度面板</t>
+  </si>
+  <si>
+    <t>迪瑞达面板</t>
+  </si>
+  <si>
+    <t>华新达小面板</t>
+  </si>
+  <si>
+    <t>钱灿</t>
+  </si>
+  <si>
+    <t>常州瑞耀面板</t>
+  </si>
+  <si>
+    <t>丰日面板</t>
+  </si>
+  <si>
+    <t>无锡苏米面板</t>
+  </si>
+  <si>
+    <t>信宇人</t>
+  </si>
+  <si>
+    <t>05.13发货笔记</t>
+  </si>
+  <si>
+    <t>3+2</t>
+  </si>
+  <si>
+    <t>无锡先驱</t>
+  </si>
+  <si>
+    <t>不印字</t>
+  </si>
+  <si>
+    <t>黄平忠海晨喷漆印字</t>
+  </si>
+  <si>
+    <t>甘肃恒跃面板</t>
   </si>
   <si>
     <t>发货笔记&amp;日志.xls 兼容性报表</t>
@@ -637,7 +688,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -715,7 +766,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0070C0"/>
+      <color theme="4" tint="-0.25"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -723,6 +774,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1351,49 +1408,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1405,98 +1459,101 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1581,6 +1638,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1590,23 +1650,23 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1614,10 +1674,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1629,10 +1692,10 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1641,16 +1704,16 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1659,25 +1722,25 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="justify" readingOrder="1"/>
     </xf>
     <xf numFmtId="177" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2026,15 +2089,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:7">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="19" t="s">
@@ -2058,226 +2121,226 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="43">
         <v>10</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="43">
         <v>260</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="43">
         <v>335</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="43">
         <f t="shared" ref="F3:F12" si="0">IF(E3="2MM",B3*C3*D3*0.00045,"未知")</f>
         <v>391.95</v>
       </c>
-      <c r="G3" s="41"/>
+      <c r="G3" s="43"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="43">
         <v>7</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>365</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="43">
         <v>346</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="43">
         <f t="shared" si="0"/>
         <v>397.8135</v>
       </c>
-      <c r="G4" s="41"/>
+      <c r="G4" s="43"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="43">
         <v>1</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="43">
         <v>448</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="43">
         <v>474</v>
       </c>
-      <c r="E5" s="41" t="s">
+      <c r="E5" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="43" t="str">
         <f t="shared" si="0"/>
         <v>未知</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="43" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="43">
         <v>1</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>460</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="43">
         <v>365</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="43">
         <f t="shared" si="0"/>
         <v>75.555</v>
       </c>
-      <c r="G6" s="41"/>
+      <c r="G6" s="43"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="43">
         <v>2</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="43">
         <v>332</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="43">
         <v>380</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="43">
         <f t="shared" si="0"/>
         <v>113.544</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="43"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="43">
         <v>5</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="43">
         <v>267</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="43">
         <v>267</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="43">
         <f t="shared" si="0"/>
         <v>160.40025</v>
       </c>
-      <c r="G8" s="41"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="43">
         <v>2</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="43">
         <v>365</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="43">
         <v>295</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="41" t="str">
+      <c r="F9" s="43" t="str">
         <f t="shared" si="0"/>
         <v>未知</v>
       </c>
-      <c r="G9" s="41"/>
+      <c r="G9" s="43"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="43">
         <v>1</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="43">
         <v>455</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="43">
         <v>330</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="43">
         <f t="shared" si="0"/>
         <v>67.5675</v>
       </c>
-      <c r="G10" s="41"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="43">
         <v>10</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="43">
         <v>345</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="43">
         <v>255</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="43">
         <f t="shared" si="0"/>
         <v>395.8875</v>
       </c>
-      <c r="G11" s="41"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="43">
         <v>1</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="43">
         <v>300</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="43">
         <v>250</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="43">
         <f t="shared" si="0"/>
         <v>33.75</v>
       </c>
-      <c r="G12" s="41"/>
+      <c r="G12" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2463,7 +2526,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -2476,7 +2539,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -2489,7 +2552,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -2502,7 +2565,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -2515,7 +2578,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -2528,7 +2591,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -2541,7 +2604,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -2554,7 +2617,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -2567,7 +2630,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -2580,7 +2643,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -2593,7 +2656,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -2606,7 +2669,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -2619,7 +2682,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -2632,7 +2695,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -2645,18 +2708,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2800,7 +2863,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -2813,7 +2876,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -2826,7 +2889,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -2839,7 +2902,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -2852,7 +2915,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -2865,7 +2928,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -2878,7 +2941,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -2891,7 +2954,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -2904,7 +2967,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -2917,7 +2980,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -2930,7 +2993,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -2943,7 +3006,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -2956,7 +3019,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -2969,7 +3032,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -2982,18 +3045,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3100,7 +3163,7 @@
       <c r="D4" s="23">
         <v>365</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="42" t="s">
         <v>58</v>
       </c>
       <c r="F4" s="23">
@@ -3185,7 +3248,7 @@
       <c r="G7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -3198,7 +3261,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -3211,7 +3274,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -3224,7 +3287,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -3237,7 +3300,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -3250,7 +3313,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -3263,7 +3326,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -3276,7 +3339,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -3289,7 +3352,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -3302,7 +3365,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -3315,7 +3378,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -3328,7 +3391,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -3341,7 +3404,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -3354,7 +3417,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -3367,18 +3430,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3558,7 +3621,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -3571,7 +3634,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -3584,7 +3647,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -3597,7 +3660,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -3610,7 +3673,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -3623,7 +3686,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -3636,7 +3699,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -3649,7 +3712,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -3662,7 +3725,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -3675,7 +3738,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -3688,7 +3751,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -3701,7 +3764,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -3714,7 +3777,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -3727,7 +3790,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -3740,18 +3803,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3905,7 +3968,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="31"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -3918,7 +3981,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="31"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -3931,7 +3994,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="31"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -3944,7 +4007,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -3957,7 +4020,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="31"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -3970,7 +4033,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="31"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -3983,7 +4046,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="31"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -3996,7 +4059,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="31"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -4009,7 +4072,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="30"/>
+      <c r="H15" s="31"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -4022,7 +4085,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="30"/>
+      <c r="H16" s="31"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -4035,7 +4098,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -4048,7 +4111,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -4061,7 +4124,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -4074,7 +4137,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -4087,18 +4150,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4168,26 +4231,26 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="33">
         <v>4</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="33">
         <v>336</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="33">
         <v>644</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="33">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>389.4912</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="33" t="s">
         <v>127</v>
       </c>
       <c r="H3" s="25">
@@ -4550,7 +4613,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -4563,7 +4626,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -4576,7 +4639,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -4589,7 +4652,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -4602,18 +4665,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E8 E11 E15 E5:E7 E9:E10 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4921,7 +4984,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -4934,7 +4997,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -4947,7 +5010,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -4960,7 +5023,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -4973,18 +5036,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E8 E11 E15 E5:E7 E9:E10 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5054,7 +5117,7 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>144</v>
       </c>
       <c r="B3" s="23">
@@ -5304,7 +5367,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -5317,7 +5380,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -5330,7 +5393,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -5343,7 +5406,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -5356,18 +5419,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E11 E15 E6:E7 E9:E10 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5437,26 +5500,26 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="33">
         <v>14</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="33">
         <v>392</v>
       </c>
-      <c r="D3" s="31">
+      <c r="D3" s="33">
         <v>310</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="34">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>935.704</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="33" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="25">
@@ -5464,26 +5527,26 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="33">
         <v>3</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="33">
         <v>270</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="33">
         <v>240</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="34">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>87.48</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="33" t="s">
         <v>45</v>
       </c>
       <c r="H4" s="25">
@@ -5491,51 +5554,51 @@
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="33">
         <v>1</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="33">
         <v>450</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="33">
         <v>295</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="34">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>59.7375</v>
       </c>
-      <c r="G5" s="31"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="25">
         <v>45017</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="33">
         <v>1</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="33">
         <v>365</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="33">
         <v>365</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="34">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>59.95125</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="33" t="s">
         <v>152</v>
       </c>
       <c r="H6" s="25">
@@ -5543,142 +5606,142 @@
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="33">
         <v>2</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="33">
         <v>450</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="33">
         <v>180</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="34">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>72.9</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="33" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="25">
         <v>45019</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="38" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="33">
         <v>2</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="33">
         <v>335</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="33">
         <v>275</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E8" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="34">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>82.9125</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="H8" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="37"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="33">
         <v>1</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="33">
         <v>315</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="33">
         <v>355</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="34">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>50.32125</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="33" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="25">
         <v>45019</v>
       </c>
-      <c r="I9" s="37"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="33">
         <v>6</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="33">
         <v>341</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="33">
         <v>347</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="34">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v>390.4791</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="33" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="25">
         <v>45019</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="I10" s="38" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="33">
         <v>6</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="33">
         <v>210</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="33">
         <v>160</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="34">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v>90.72</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="33" t="s">
         <v>28</v>
       </c>
       <c r="H11" s="25">
@@ -5686,32 +5749,32 @@
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="35">
         <v>10</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="35">
         <v>430</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="35">
         <v>290</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="36">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v>561.15</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="37">
         <v>45019</v>
       </c>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="40" t="s">
         <v>161</v>
       </c>
     </row>
@@ -5778,7 +5841,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -5791,7 +5854,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -5804,7 +5867,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -5817,7 +5880,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -5830,18 +5893,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E11 E15 E6:E7 E9:E10 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5911,7 +5974,7 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="23">
@@ -5933,7 +5996,7 @@
       <c r="G3" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="30">
         <v>45022</v>
       </c>
     </row>
@@ -5960,7 +6023,7 @@
       <c r="G4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="30">
         <v>45022</v>
       </c>
     </row>
@@ -5987,7 +6050,7 @@
       <c r="G5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="30">
         <v>45022</v>
       </c>
     </row>
@@ -6014,7 +6077,7 @@
       <c r="G6" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="30">
         <v>45022</v>
       </c>
     </row>
@@ -6041,12 +6104,12 @@
       <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="30">
         <v>45022</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="23">
@@ -6058,7 +6121,7 @@
       <c r="D8" s="23">
         <v>347</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="32" t="s">
         <v>58</v>
       </c>
       <c r="F8" s="24">
@@ -6068,12 +6131,12 @@
       <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="30">
         <v>45022</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B9" s="23">
@@ -6095,12 +6158,12 @@
       <c r="G9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="30">
         <v>45022</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="29" t="s">
         <v>167</v>
       </c>
       <c r="B10" s="23">
@@ -6122,7 +6185,7 @@
       <c r="G10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="30">
         <v>45022</v>
       </c>
     </row>
@@ -6215,7 +6278,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -6228,7 +6291,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -6241,7 +6304,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -6254,7 +6317,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -6267,18 +6330,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E9 E10 E11 E15 E6:E7 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6307,15 +6370,15 @@
   </cols>
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:7">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:7">
       <c r="A2" s="19" t="s">
@@ -6339,26 +6402,26 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="44">
         <v>330</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="44">
         <v>310</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="43">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>46.035</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6366,15 +6429,15 @@
       <c r="A4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="43" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6386,15 +6449,15 @@
       <c r="A5" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>15</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6403,26 +6466,26 @@
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>1</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>298</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="43">
         <v>220</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="43">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>29.502</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="41" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6430,23 +6493,23 @@
       <c r="A7" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>2</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="43">
         <v>335</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="43">
         <v>337</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="43">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>101.6055</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="41" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6454,19 +6517,19 @@
       <c r="A8" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="44">
         <v>8</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="43">
         <v>310</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="43">
         <v>310</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="43">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>345.96</v>
       </c>
@@ -6475,36 +6538,36 @@
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="44">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="43">
         <v>410</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="43">
         <v>260</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="43">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>47.97</v>
       </c>
-      <c r="G9" s="56" t="s">
+      <c r="G9" s="58" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:7">
       <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41" t="str">
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6514,45 +6577,45 @@
       <c r="A11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="44">
         <v>2</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="43">
         <v>130</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="43">
         <v>80</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="41" t="str">
+      <c r="F11" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G11" s="56" t="s">
+      <c r="G11" s="58" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:7">
       <c r="A12" s="23"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="str">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:7">
       <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41" t="str">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6560,11 +6623,11 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:7">
       <c r="A14" s="23"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41" t="str">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6572,11 +6635,11 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:7">
       <c r="A15" s="23"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41" t="str">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6584,11 +6647,11 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:7">
       <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41" t="str">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6596,11 +6659,11 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:7">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6608,11 +6671,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:7">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6620,11 +6683,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:7">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6632,11 +6695,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:7">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -6832,23 +6895,23 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="29"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="24" t="str">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -6858,10 +6921,10 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="29"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -6871,7 +6934,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -6962,7 +7025,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -6975,7 +7038,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -6988,7 +7051,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -7001,7 +7064,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -7014,18 +7077,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7210,7 +7273,7 @@
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="24" t="str">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v/>
@@ -7223,7 +7286,7 @@
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="29" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="23">
@@ -7242,7 +7305,7 @@
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -7252,7 +7315,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -7343,7 +7406,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -7356,7 +7419,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -7369,7 +7432,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -7382,7 +7445,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -7395,18 +7458,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7420,7 +7483,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -7605,7 +7668,7 @@
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
-      <c r="E8" s="27"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="24" t="str">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v/>
@@ -7614,7 +7677,7 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -7627,7 +7690,7 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -7637,7 +7700,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="29"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -7728,7 +7791,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -7741,7 +7804,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -7754,7 +7817,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -7767,7 +7830,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -7780,18 +7843,18 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7801,6 +7864,1151 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.175" customWidth="1"/>
+    <col min="3" max="4" width="8.00833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="7" width="14.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(F:F)</f>
+        <v>117.585</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="23">
+        <v>3</v>
+      </c>
+      <c r="C3" s="23">
+        <v>335</v>
+      </c>
+      <c r="D3" s="23">
+        <v>260</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
+        <v>117.585</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="26"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="29"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G10" s="23"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.175" customWidth="1"/>
+    <col min="3" max="4" width="8.00833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="7" width="14.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(F:F)</f>
+        <v>1962.94275</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="23">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23">
+        <v>280</v>
+      </c>
+      <c r="D3" s="23">
+        <v>380</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
+        <v>191.52</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="25"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>415</v>
+      </c>
+      <c r="D4" s="23">
+        <v>315</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
+        <v>117.6525</v>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="23">
+        <v>375</v>
+      </c>
+      <c r="D5" s="23">
+        <v>305</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
+        <v>102.9375</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="23"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" s="23">
+        <v>28</v>
+      </c>
+      <c r="C6" s="23">
+        <v>355</v>
+      </c>
+      <c r="D6" s="23">
+        <v>245</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
+        <v>1095.885</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="23">
+        <v>2</v>
+      </c>
+      <c r="C7" s="23">
+        <v>270</v>
+      </c>
+      <c r="D7" s="23">
+        <v>330</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
+        <v>80.19</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="23">
+        <v>335</v>
+      </c>
+      <c r="D8" s="23">
+        <v>337</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
+        <v>101.6055</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="23">
+        <v>5</v>
+      </c>
+      <c r="C9" s="23">
+        <v>360</v>
+      </c>
+      <c r="D9" s="23">
+        <v>280</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
+        <v>226.8</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B10" s="29">
+        <v>1</v>
+      </c>
+      <c r="C10" s="29">
+        <v>315</v>
+      </c>
+      <c r="D10" s="29">
+        <v>327</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
+        <v>46.35225</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.175" customWidth="1"/>
+    <col min="3" max="4" width="8.00833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="7" width="14.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(F:F)</f>
+        <v>885.6225</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="23">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23">
+        <v>315</v>
+      </c>
+      <c r="D3" s="23">
+        <v>235</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
+        <v>166.55625</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="23">
+        <v>5</v>
+      </c>
+      <c r="C4" s="23">
+        <v>365</v>
+      </c>
+      <c r="D4" s="23">
+        <v>365</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
+        <v>299.75625</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="27">
+        <v>1</v>
+      </c>
+      <c r="C5" s="27">
+        <v>520</v>
+      </c>
+      <c r="D5" s="27">
+        <v>450</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="23">
+        <v>1</v>
+      </c>
+      <c r="C6" s="23">
+        <v>600</v>
+      </c>
+      <c r="D6" s="23">
+        <v>328</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
+        <v>88.56</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="23">
+        <v>7</v>
+      </c>
+      <c r="C7" s="23">
+        <v>350</v>
+      </c>
+      <c r="D7" s="23">
+        <v>300</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
+        <v>330.75</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="25"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="25"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -7817,7 +9025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -7834,7 +9042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:F11"/>
@@ -7854,7 +9062,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -7863,7 +9071,7 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -7879,7 +9087,7 @@
     </row>
     <row r="4" ht="42.75" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -7895,15 +9103,15 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:6">
@@ -7915,7 +9123,7 @@
     </row>
     <row r="8" ht="42.75" spans="2:6">
       <c r="B8" s="5" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -7928,11 +9136,11 @@
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
-      <c r="E9" s="61" t="s">
-        <v>193</v>
+      <c r="E9" s="63" t="s">
+        <v>209</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -7980,17 +9188,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="52">
+      <c r="G1" s="54">
         <f>SUM(F:F)</f>
         <v>798.2964</v>
       </c>
@@ -8101,19 +9309,19 @@
       <c r="A6" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>2</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>625</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="43">
         <v>455</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="43">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>255.9375</v>
       </c>
@@ -8178,19 +9386,19 @@
       <c r="A9" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="44">
         <v>2</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="43">
         <v>460</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="43">
         <v>460</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="43">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>190.44</v>
       </c>
@@ -8202,26 +9410,26 @@
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="55">
         <v>1</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="33">
         <v>272</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="33">
         <v>224</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="31" t="str">
+      <c r="F10" s="33" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="33" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="26" t="s">
@@ -8229,26 +9437,26 @@
       </c>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="55">
         <v>10</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="33">
         <v>390</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="33">
         <v>450</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="31" t="str">
+      <c r="F11" s="33" t="str">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="33" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="26" t="s">
@@ -8256,92 +9464,92 @@
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A12" s="27"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="19"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="56"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="58"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A14" s="31"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A15" s="31"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43"/>
       <c r="G16" s="23"/>
       <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A17" s="27"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="27"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="32"/>
       <c r="G17" s="23"/>
       <c r="H17" s="19"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43"/>
       <c r="G18" s="23"/>
       <c r="H18" s="19"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="27"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="32"/>
       <c r="G19" s="23"/>
       <c r="H19" s="19"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8350,11 +9558,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8366,11 +9574,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E7 E8 E9 E12 E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E10:E11 E14:E16 E17:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E7 E8 E9 E12 E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8399,17 +9607,17 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="52">
+      <c r="G1" s="54">
         <f>SUM(F:F)</f>
         <v>2766.72665</v>
       </c>
@@ -8443,176 +9651,176 @@
       <c r="A3" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="44">
         <v>3</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="43">
         <v>338</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="43">
         <v>338</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="43">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>154.2294</v>
       </c>
       <c r="G3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="49"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>4</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>335</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="43">
         <v>337</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="43">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>203.211</v>
       </c>
       <c r="G4" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="51"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
       <c r="A5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>5</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="43">
         <v>430</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="43">
         <v>290</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="43">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>280.575</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="49"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>1</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>400</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="43">
         <v>400</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="43">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>72</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="49"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="32">
         <v>1</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="32">
         <v>380</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="32">
         <v>430</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="32">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>89.87</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="49"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="32">
         <v>15</v>
       </c>
-      <c r="C8" s="27">
+      <c r="C8" s="32">
         <v>305</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="32">
         <v>485</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="32">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>1220.38125</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="49"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="32">
         <v>5</v>
       </c>
-      <c r="C9" s="27">
+      <c r="C9" s="32">
         <v>520</v>
       </c>
-      <c r="D9" s="27">
+      <c r="D9" s="32">
         <v>522</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="32">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>746.46</v>
       </c>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="49"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41" t="str">
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8621,11 +9829,11 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41" t="str">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8634,11 +9842,11 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="str">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8647,11 +9855,11 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41" t="str">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8660,11 +9868,11 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41" t="str">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8673,11 +9881,11 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41" t="str">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8686,11 +9894,11 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41" t="str">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8699,11 +9907,11 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8712,11 +9920,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8725,11 +9933,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8738,11 +9946,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8751,11 +9959,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8767,11 +9975,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E8 E9 E17 E18 E14:E15 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E10 E11 E12 E13 E16">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E8 E9 E17 E18 E14:E15 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8844,7 +10052,7 @@
       <c r="A3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="48">
         <v>2</v>
       </c>
       <c r="C3" s="26">
@@ -8853,7 +10061,7 @@
       <c r="D3" s="26">
         <v>455</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="49" t="s">
         <v>37</v>
       </c>
       <c r="F3" s="26" t="str">
@@ -8863,7 +10071,7 @@
       <c r="G3" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="50" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8871,7 +10079,7 @@
       <c r="A4" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="46">
+      <c r="B4" s="48">
         <v>1</v>
       </c>
       <c r="C4" s="26">
@@ -8880,7 +10088,7 @@
       <c r="D4" s="26">
         <v>280</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="26">
@@ -8890,7 +10098,7 @@
       <c r="G4" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="50" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8898,7 +10106,7 @@
       <c r="A5" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="48">
         <v>1</v>
       </c>
       <c r="C5" s="26">
@@ -8907,7 +10115,7 @@
       <c r="D5" s="26">
         <v>384</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="49" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="26">
@@ -8917,7 +10125,7 @@
       <c r="G5" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="50" t="s">
         <v>46</v>
       </c>
     </row>
@@ -8925,7 +10133,7 @@
       <c r="A6" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="48">
         <v>2</v>
       </c>
       <c r="C6" s="26">
@@ -8934,7 +10142,7 @@
       <c r="D6" s="26">
         <v>347</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F6" s="26">
@@ -8944,56 +10152,56 @@
       <c r="G6" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="50" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="41" t="str">
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="49"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="str">
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="49"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="41" t="str">
+      <c r="B9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="49"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="41" t="str">
+      <c r="B10" s="44"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9002,11 +10210,11 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41" t="str">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9015,11 +10223,11 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="str">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9028,11 +10236,11 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41" t="str">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9041,11 +10249,11 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41" t="str">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9054,11 +10262,11 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41" t="str">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9067,11 +10275,11 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41" t="str">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9080,11 +10288,11 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9093,11 +10301,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9106,11 +10314,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9119,11 +10327,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9132,11 +10340,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9148,11 +10356,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E17 E18 E14:E15 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E9 E10 E11 E12 E13 E16">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E17 E18 E14:E15 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -9225,15 +10433,15 @@
       <c r="A3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="44">
         <v>1</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="43" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="41" t="str">
+      <c r="F3" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9248,15 +10456,15 @@
       <c r="A4" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="42">
+      <c r="B4" s="44">
         <v>10</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="43" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="41" t="str">
+      <c r="F4" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9268,49 +10476,49 @@
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="43" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="44">
+      <c r="B6" s="46">
         <v>1</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="41">
         <v>590</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="41">
         <v>380</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="41">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>123.31</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="25">
         <v>44986</v>
       </c>
@@ -9319,19 +10527,19 @@
       <c r="A7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="43">
         <v>395</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="43">
         <v>345</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="43">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>61.32375</v>
       </c>
@@ -9344,19 +10552,19 @@
       <c r="A8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="44">
         <v>1</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="43">
         <v>500</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="43">
         <v>500</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="43">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>137.5</v>
       </c>
@@ -9369,19 +10577,19 @@
       <c r="A9" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="44">
         <v>1</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="43">
         <v>435</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="43">
         <v>227</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="43">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>44.43525</v>
       </c>
@@ -9394,19 +10602,19 @@
       <c r="A10" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="42">
+      <c r="B10" s="44">
         <v>3</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="43">
         <v>335</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="43">
         <v>337</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="43">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v>152.40825</v>
       </c>
@@ -9419,19 +10627,19 @@
       <c r="A11" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="44">
         <v>1</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="43">
         <v>300</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="43">
         <v>300</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="43">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v>40.5</v>
       </c>
@@ -9444,19 +10652,19 @@
       <c r="A12" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="44">
         <v>2</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="43">
         <v>375</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="43">
         <v>265</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="43">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v>89.4375</v>
       </c>
@@ -9469,19 +10677,19 @@
       <c r="A13" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="44">
         <v>1</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="43">
         <v>461</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="43">
         <v>530</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="43">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v>109.9485</v>
       </c>
@@ -9493,22 +10701,22 @@
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <v>1</v>
       </c>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="41">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="41" t="s">
         <v>81</v>
       </c>
       <c r="H14" s="25">
@@ -9516,26 +10724,26 @@
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="41">
         <v>2</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="41">
         <v>280</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="41">
         <v>160</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="39" t="str">
+      <c r="F15" s="41" t="str">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="41" t="s">
         <v>83</v>
       </c>
       <c r="H15" s="25">
@@ -9543,37 +10751,37 @@
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="41">
         <v>2</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="41">
         <v>210</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="41">
         <v>160</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="E16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="41">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v>30.24</v>
       </c>
-      <c r="G16" s="39"/>
+      <c r="G16" s="41"/>
       <c r="H16" s="25">
         <v>44986</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9582,11 +10790,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9595,11 +10803,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9608,11 +10816,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9621,11 +10829,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9637,11 +10845,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E17 E18 E14:E15 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E12 E13 E16 E9:E11">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E17 E18 E14:E15 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -9711,19 +10919,19 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="43">
         <v>5</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="43">
         <v>335</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="43">
         <v>295</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="45" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="26">
@@ -9736,19 +10944,19 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="43">
         <v>6</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="43">
         <v>330</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="43">
         <v>352</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="45" t="s">
         <v>23</v>
       </c>
       <c r="F4" s="26">
@@ -9761,47 +10969,47 @@
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>4</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="43">
         <v>455</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="43">
         <v>320</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="43">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>262.08</v>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="25">
         <v>44985</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="44">
         <v>2</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="43">
         <v>376</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="43">
         <v>376</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="43">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>127.2384</v>
       </c>
@@ -9814,19 +11022,19 @@
       <c r="A7" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="43">
         <v>395</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="43">
         <v>345</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="43">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>61.32375</v>
       </c>
@@ -9839,19 +11047,19 @@
       <c r="A8" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="44">
         <v>20</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="43">
         <v>365</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="43">
         <v>415</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="43">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>1363.275</v>
       </c>
@@ -9861,22 +11069,22 @@
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="46">
         <v>3</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="41">
         <v>435</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="41">
         <v>277</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="41">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>162.66825</v>
       </c>
@@ -9888,22 +11096,22 @@
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="46">
         <v>1</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="41">
         <v>335</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="41">
         <v>337</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="41">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v>50.80275</v>
       </c>
@@ -9918,19 +11126,19 @@
       <c r="A11" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="44">
         <v>2</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="43">
         <v>325</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="43">
         <v>265</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="43">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v>77.5125</v>
       </c>
@@ -9943,19 +11151,19 @@
       <c r="A12" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="42">
+      <c r="B12" s="44">
         <v>4</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="43">
         <v>405</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="43">
         <v>300</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="43">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v>218.7</v>
       </c>
@@ -9970,19 +11178,19 @@
       <c r="A13" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="44">
         <v>10</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="43">
         <v>400</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="43">
         <v>400</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="43">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v>720</v>
       </c>
@@ -9997,19 +11205,19 @@
       <c r="A14" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="42">
+      <c r="B14" s="44">
         <v>14</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="43">
         <v>500</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="43">
         <v>485</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="43">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v>1867.25</v>
       </c>
@@ -10024,19 +11232,19 @@
       <c r="A15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="44">
         <v>2</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="43">
         <v>460</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="43">
         <v>420</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="43">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v>173.88</v>
       </c>
@@ -10049,19 +11257,19 @@
       <c r="A16" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="42">
+      <c r="B16" s="44">
         <v>1</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="43">
         <v>400</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="43">
         <v>350</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="43">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v>63</v>
       </c>
@@ -10074,11 +11282,11 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10087,11 +11295,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10100,11 +11308,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10113,11 +11321,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10126,11 +11334,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10142,11 +11350,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10243,26 +11451,26 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="42">
         <v>2</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="42">
         <v>516</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="42">
         <v>250</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="42">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>116.1</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="42" t="s">
         <v>97</v>
       </c>
       <c r="H4" s="26" t="s">
@@ -10270,26 +11478,26 @@
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="44">
         <v>1</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="43">
         <v>515</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="43">
         <v>445</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="41" t="str">
+      <c r="F5" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="43" t="s">
         <v>98</v>
       </c>
       <c r="H5" s="25" t="s">
@@ -10327,19 +11535,19 @@
       <c r="A7" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="44">
         <v>1</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="43">
         <v>345</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="43">
         <v>395</v>
       </c>
-      <c r="E7" s="43" t="s">
+      <c r="E7" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="43">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>61.32375</v>
       </c>
@@ -10350,11 +11558,11 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="str">
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10362,12 +11570,12 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="39"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="39" t="str">
+      <c r="A9" s="41"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="41" t="str">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10375,12 +11583,12 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="39"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="39" t="str">
+      <c r="A10" s="41"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="41" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10389,11 +11597,11 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41" t="str">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10402,11 +11610,11 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="str">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10415,11 +11623,11 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41" t="str">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10428,11 +11636,11 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41" t="str">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10441,11 +11649,11 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41" t="str">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10454,11 +11662,11 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41" t="str">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10467,11 +11675,11 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10480,11 +11688,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10493,11 +11701,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10506,11 +11714,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10519,11 +11727,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10535,11 +11743,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10653,7 +11861,7 @@
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>41.6835</v>
       </c>
-      <c r="G4" s="40"/>
+      <c r="G4" s="42"/>
       <c r="H4" s="25">
         <v>44991</v>
       </c>
@@ -10661,14 +11869,14 @@
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="26"/>
       <c r="F5" s="26" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G5" s="41"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="25"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
@@ -10686,11 +11894,11 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="41" t="str">
+      <c r="B7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10699,11 +11907,11 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="41" t="str">
+      <c r="B8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10711,12 +11919,12 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="39"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="39" t="str">
+      <c r="A9" s="41"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="41" t="str">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10724,12 +11932,12 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="39"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="39" t="str">
+      <c r="A10" s="41"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="41" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10738,11 +11946,11 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="41" t="str">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10751,11 +11959,11 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="str">
+      <c r="B12" s="44"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10764,11 +11972,11 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="41" t="str">
+      <c r="B13" s="44"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10777,11 +11985,11 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="41" t="str">
+      <c r="B14" s="44"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10790,11 +11998,11 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="41" t="str">
+      <c r="B15" s="44"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10803,11 +12011,11 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="41" t="str">
+      <c r="B16" s="44"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10816,11 +12024,11 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="41" t="str">
+      <c r="B17" s="44"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10829,11 +12037,11 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="41" t="str">
+      <c r="B18" s="44"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10842,11 +12050,11 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="41" t="str">
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10855,11 +12063,11 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="41" t="str">
+      <c r="B20" s="44"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10868,11 +12076,11 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="41" t="str">
+      <c r="B21" s="44"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="43" t="str">
         <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -10884,11 +12092,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/发货笔记&日志.xlsx
+++ b/发货笔记&日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="16" activeTab="24"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="18" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="2023.02.17" sheetId="1" r:id="rId1"/>
@@ -32,16 +32,18 @@
     <sheet name="2023.05.06" sheetId="27" r:id="rId23"/>
     <sheet name="2023.05.08" sheetId="28" r:id="rId24"/>
     <sheet name="2023.05.13" sheetId="29" r:id="rId25"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId26"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId27"/>
-    <sheet name="兼容性报表" sheetId="6" r:id="rId28"/>
+    <sheet name="2023.05.20" sheetId="30" r:id="rId26"/>
+    <sheet name="2023.05.25" sheetId="31" r:id="rId27"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId28"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId29"/>
+    <sheet name="兼容性报表" sheetId="6" r:id="rId30"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="214">
   <si>
     <t>0217 发货</t>
   </si>
@@ -647,6 +649,15 @@
   </si>
   <si>
     <t>甘肃恒跃面板</t>
+  </si>
+  <si>
+    <t>05.20发货笔记</t>
+  </si>
+  <si>
+    <t>05.25发货笔记</t>
+  </si>
+  <si>
+    <t>安洋智能面板</t>
   </si>
   <si>
     <t>发货笔记&amp;日志.xls 兼容性报表</t>
@@ -754,13 +765,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF00B050"/>
+      <color rgb="FFC00000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFC00000"/>
+      <color rgb="FF00B050"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1629,10 +1640,10 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1644,7 +1655,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1653,10 +1664,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1698,10 +1709,10 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1719,7 +1730,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2434,7 +2445,7 @@
         <v>94.5</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>44993</v>
       </c>
     </row>
@@ -2461,7 +2472,7 @@
       <c r="G4" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>44993</v>
       </c>
     </row>
@@ -2486,7 +2497,7 @@
         <v>46.08</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>44993</v>
       </c>
     </row>
@@ -2511,7 +2522,7 @@
         <v>619.2</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>44993</v>
       </c>
     </row>
@@ -2715,11 +2726,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -2809,7 +2820,7 @@
         <v>472.5</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>44994</v>
       </c>
     </row>
@@ -2824,7 +2835,7 @@
         <v/>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
       <c r="A5" s="23"/>
@@ -2837,7 +2848,7 @@
         <v/>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="23"/>
@@ -2850,7 +2861,7 @@
         <v/>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
@@ -3052,11 +3063,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3148,7 +3159,7 @@
       <c r="G3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="23" t="s">
@@ -3173,32 +3184,32 @@
       <c r="G4" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>9</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>298</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>220</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>265.518</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="23" t="s">
@@ -3223,7 +3234,7 @@
       <c r="G6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23" t="s">
@@ -3437,11 +3448,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3533,7 +3544,7 @@
       <c r="G3" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="23" t="s">
@@ -3558,7 +3569,7 @@
       <c r="G4" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H4" s="25"/>
+      <c r="H4" s="26"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
       <c r="A5" s="23" t="s">
@@ -3583,7 +3594,7 @@
       <c r="G5" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="23" t="s">
@@ -3608,7 +3619,7 @@
       <c r="G6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
@@ -3810,11 +3821,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3906,7 +3917,7 @@
       <c r="G3" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45002</v>
       </c>
     </row>
@@ -3933,7 +3944,7 @@
       <c r="G4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45002</v>
       </c>
     </row>
@@ -3945,7 +3956,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="23"/>
@@ -3955,7 +3966,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
@@ -4157,11 +4168,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4253,169 +4264,169 @@
       <c r="G3" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45003</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>2</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>315</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>315</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>89.3025</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>7</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>460</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>383</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>554.967</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>334</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>336</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>101.0016</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>2</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>266</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>271</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>64.8774</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>355</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>315</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>50.32125</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="25">
         <v>1</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="25">
         <v>800</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="25">
         <v>240</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
         <v>86.4</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>45005</v>
       </c>
     </row>
@@ -4434,7 +4445,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>45005</v>
       </c>
     </row>
@@ -4461,88 +4472,88 @@
       <c r="G11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>45006</v>
       </c>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="25">
         <v>1</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="25">
         <v>430</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="25">
         <v>290</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="25">
         <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
         <v>56.115</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="25">
         <v>4</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="25">
         <v>355</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="25">
         <v>245</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="25">
         <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
         <v>156.555</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <v>45005</v>
       </c>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="25">
         <v>1</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="25">
         <v>295</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="25">
         <v>265</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="25">
         <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
         <v>35.17875</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="26">
         <v>45005</v>
       </c>
     </row>
@@ -4569,7 +4580,7 @@
       <c r="G15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>45006</v>
       </c>
     </row>
@@ -4586,17 +4597,17 @@
       <c r="D16" s="23">
         <v>390</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="25">
         <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
         <v>280.8</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>45005</v>
       </c>
     </row>
@@ -4672,11 +4683,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E8 E11 E15 E5:E7 E9:E10 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E8 E11 E15 E5:E7 E9:E10 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4768,7 +4779,7 @@
       <c r="G3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45012</v>
       </c>
     </row>
@@ -4795,7 +4806,7 @@
       <c r="G4" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45012</v>
       </c>
     </row>
@@ -4820,7 +4831,7 @@
         <v>64.935</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>45012</v>
       </c>
     </row>
@@ -4839,7 +4850,7 @@
         <v/>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>45017</v>
       </c>
     </row>
@@ -4854,7 +4865,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -4867,7 +4878,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -4880,7 +4891,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -4893,7 +4904,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -4906,7 +4917,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -4919,7 +4930,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -4932,7 +4943,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -4945,7 +4956,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -4958,7 +4969,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -4971,7 +4982,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -5043,11 +5054,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E8 E11 E15 E5:E7 E9:E10 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E8 E11 E15 E5:E7 E9:E10 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5137,7 +5148,7 @@
         <v>51.3</v>
       </c>
       <c r="G3" s="23"/>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45016</v>
       </c>
     </row>
@@ -5162,7 +5173,7 @@
         <v>99.405</v>
       </c>
       <c r="G4" s="23"/>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45016</v>
       </c>
     </row>
@@ -5187,7 +5198,7 @@
         <v>453.6</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>45016</v>
       </c>
     </row>
@@ -5212,7 +5223,7 @@
         <v>75.051</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>45016</v>
       </c>
     </row>
@@ -5237,7 +5248,7 @@
         <v>59.7375</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -5250,7 +5261,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -5263,7 +5274,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -5276,7 +5287,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -5289,7 +5300,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -5302,7 +5313,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -5315,7 +5326,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -5328,7 +5339,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -5341,7 +5352,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -5354,7 +5365,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -5426,11 +5437,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E11 E15 E6:E7 E9:E10 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E11 E15 E6:E7 E9:E10 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5522,7 +5533,7 @@
       <c r="G3" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45019</v>
       </c>
     </row>
@@ -5549,7 +5560,7 @@
       <c r="G4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45019</v>
       </c>
     </row>
@@ -5574,7 +5585,7 @@
         <v>59.7375</v>
       </c>
       <c r="G5" s="33"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>45017</v>
       </c>
     </row>
@@ -5601,7 +5612,7 @@
       <c r="G6" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>45019</v>
       </c>
     </row>
@@ -5628,7 +5639,7 @@
       <c r="G7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>45019</v>
       </c>
       <c r="I7" s="38" t="s">
@@ -5658,7 +5669,7 @@
       <c r="G8" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="26" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="39"/>
@@ -5686,7 +5697,7 @@
       <c r="G9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>45019</v>
       </c>
       <c r="I9" s="39"/>
@@ -5714,7 +5725,7 @@
       <c r="G10" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>45019</v>
       </c>
       <c r="I10" s="38" t="s">
@@ -5744,7 +5755,7 @@
       <c r="G11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>45019</v>
       </c>
     </row>
@@ -5789,7 +5800,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -5802,7 +5813,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -5815,7 +5826,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -5828,7 +5839,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -5900,11 +5911,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E11 E15 E6:E7 E9:E10 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E11 E15 E6:E7 E9:E10 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6055,7 +6066,7 @@
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>164</v>
       </c>
       <c r="B6" s="23">
@@ -6082,7 +6093,7 @@
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>165</v>
       </c>
       <c r="B7" s="23">
@@ -6200,7 +6211,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -6213,7 +6224,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -6226,7 +6237,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -6239,7 +6250,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -6252,7 +6263,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -6265,7 +6276,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -6337,11 +6348,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E9 E10 E11 E15 E6:E7 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E8 E9 E10 E11 E15 E6:E7 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -6803,7 +6814,7 @@
       <c r="G3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45028</v>
       </c>
     </row>
@@ -6830,12 +6841,12 @@
       <c r="G4" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45028</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="23">
@@ -6855,12 +6866,12 @@
         <v>236.25</v>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>45028</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="23">
@@ -6880,12 +6891,12 @@
         <v>333.1125</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>45028</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="26"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="23"/>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -6947,7 +6958,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -6960,7 +6971,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -6973,7 +6984,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -6986,7 +6997,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -6999,7 +7010,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -7012,7 +7023,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -7084,11 +7095,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7180,7 +7191,7 @@
       <c r="G3" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>45029</v>
       </c>
     </row>
@@ -7201,7 +7212,7 @@
       <c r="G4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>45029</v>
       </c>
     </row>
@@ -7218,12 +7229,12 @@
         <v/>
       </c>
       <c r="G5" s="23"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>45030</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="23">
@@ -7239,12 +7250,12 @@
       <c r="G6" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>45030</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="23">
@@ -7260,12 +7271,12 @@
       <c r="G7" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>45030</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="23">
@@ -7281,7 +7292,7 @@
       <c r="G8" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <v>45030</v>
       </c>
     </row>
@@ -7300,7 +7311,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>45030</v>
       </c>
     </row>
@@ -7328,7 +7339,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -7341,7 +7352,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -7354,7 +7365,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -7367,7 +7378,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -7380,7 +7391,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -7393,7 +7404,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -7465,11 +7476,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7561,7 +7572,7 @@
       <c r="G3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="23" t="s">
@@ -7636,7 +7647,7 @@
       <c r="G6" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23" t="s">
@@ -7664,7 +7675,7 @@
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -7674,7 +7685,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="29"/>
@@ -7687,7 +7698,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="29"/>
@@ -7713,7 +7724,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -7726,7 +7737,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -7739,7 +7750,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -7752,7 +7763,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -7765,7 +7776,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -7778,7 +7789,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -7850,11 +7861,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -7946,7 +7957,7 @@
       <c r="G3" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="23"/>
@@ -7985,7 +7996,7 @@
         <v/>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
@@ -8001,7 +8012,7 @@
       <c r="H7" s="23"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="26"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -8011,7 +8022,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="29"/>
@@ -8024,7 +8035,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="29"/>
@@ -8050,7 +8061,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -8063,7 +8074,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -8076,7 +8087,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -8089,7 +8100,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -8102,7 +8113,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -8115,7 +8126,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -8187,11 +8198,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8283,7 +8294,7 @@
       <c r="G3" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="25"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="23" t="s">
@@ -8356,7 +8367,7 @@
       <c r="G6" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23" t="s">
@@ -8404,7 +8415,7 @@
       <c r="G8" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23" t="s">
@@ -8429,7 +8440,7 @@
       <c r="G9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="29" t="s">
@@ -8467,7 +8478,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -8480,7 +8491,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -8493,7 +8504,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -8506,7 +8517,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -8519,7 +8530,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -8532,7 +8543,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -8604,11 +8615,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8622,7 +8633,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8700,7 +8711,7 @@
       <c r="G3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>197</v>
       </c>
     </row>
@@ -8727,7 +8738,7 @@
       <c r="G4" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8779,7 +8790,7 @@
         <v>88.56</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23" t="s">
@@ -8804,7 +8815,7 @@
       <c r="G7" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>199</v>
       </c>
     </row>
@@ -8819,7 +8830,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -8832,7 +8843,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="29"/>
@@ -8858,7 +8869,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -8871,7 +8882,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -8884,7 +8895,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -8897,7 +8908,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -8910,7 +8921,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -8923,7 +8934,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -8995,11 +9006,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -9009,6 +9020,682 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.175" customWidth="1"/>
+    <col min="3" max="4" width="8.00833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="7" width="14.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(F:F)</f>
+        <v>166.55625</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="23">
+        <v>5</v>
+      </c>
+      <c r="C3" s="23">
+        <v>315</v>
+      </c>
+      <c r="D3" s="23">
+        <v>235</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
+        <v>166.55625</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.175" customWidth="1"/>
+    <col min="3" max="4" width="8.00833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="7" width="14.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(F:F)</f>
+        <v>61.05375</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23">
+        <v>335</v>
+      </c>
+      <c r="D3" s="23">
+        <v>405</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
+        <v>61.05375</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G4" s="23"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E9 E10 E11 E15 E4:E5 E7:E8 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -9025,7 +9712,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -9039,130 +9726,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B1:F11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="1" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="1.375" customWidth="1"/>
-    <col min="4" max="4" width="4.875" customWidth="1"/>
-    <col min="5" max="6" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="2:6">
-      <c r="B2" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="2:6">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" ht="42.75" spans="2:6">
-      <c r="B4" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="2:6">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" ht="42.75" spans="2:6">
-      <c r="B8" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
-        <v>1</v>
-      </c>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" ht="27.75" spans="2:6">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="63" t="s">
-        <v>209</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="2:6">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E9" location="'2023.02.20'!F4" display="2023.02.20'!F4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -9229,79 +9792,79 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>350</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>420</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>66.15</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>500</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>150</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>33.75</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26" t="s">
+      <c r="G4" s="25"/>
+      <c r="H4" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="25">
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>350</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>400</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>63</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9326,59 +9889,59 @@
         <v>255.9375</v>
       </c>
       <c r="G6" s="23"/>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="25">
         <v>1</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>709.3</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>340</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
         <v>108.5229</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="25" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="25">
         <v>1</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="25">
         <v>344</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <v>520</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
         <v>80.496</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9405,7 +9968,7 @@
       <c r="G9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9432,7 +9995,7 @@
       <c r="G10" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9459,7 +10022,7 @@
       <c r="G11" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="25" t="s">
         <v>46</v>
       </c>
     </row>
@@ -9491,7 +10054,7 @@
       <c r="E14" s="33"/>
       <c r="F14" s="33"/>
       <c r="G14" s="33"/>
-      <c r="H14" s="26"/>
+      <c r="H14" s="25"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="33"/>
@@ -9501,7 +10064,7 @@
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
       <c r="G15" s="33"/>
-      <c r="H15" s="26"/>
+      <c r="H15" s="25"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -9511,7 +10074,7 @@
       <c r="E16" s="45"/>
       <c r="F16" s="43"/>
       <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
+      <c r="H16" s="25"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="32"/>
@@ -9574,16 +10137,140 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E10:E11 E14:E16 E17:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4 E5 E7 E8 E9 E12 E13">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E6 E10:E11 E14:E16 E17:E21">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B1:F11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="56.375" customWidth="1"/>
+    <col min="3" max="3" width="1.375" customWidth="1"/>
+    <col min="4" max="4" width="4.875" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="42.75" spans="2:6">
+      <c r="B4" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" ht="15" spans="2:6">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" ht="42.75" spans="2:6">
+      <c r="B8" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" ht="27.75" spans="2:6">
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="63" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" location="'2023.02.20'!F4" display="2023.02.20'!F4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -9975,11 +10662,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E10 E11 E12 E13 E16">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E8 E9 E17 E18 E14:E15 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E10 E11 E12 E13 E16">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10049,26 +10736,26 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="48">
         <v>2</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>625</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>455</v>
       </c>
       <c r="E3" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="26" t="str">
+      <c r="F3" s="25" t="str">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>62</v>
       </c>
       <c r="H3" s="50" t="s">
@@ -10076,26 +10763,26 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>300</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>280</v>
       </c>
       <c r="E4" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>37.8</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="50" t="s">
@@ -10103,26 +10790,26 @@
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="48">
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>500</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>384</v>
       </c>
       <c r="E5" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v>86.4</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="50" t="s">
@@ -10130,26 +10817,26 @@
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B6" s="48">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>341</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>347</v>
       </c>
       <c r="E6" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>130.1597</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="50" t="s">
@@ -10356,11 +11043,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E9 E10 E11 E12 E13 E16">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E17 E18 E14:E15 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E9 E10 E11 E12 E13 E16">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10448,7 +11135,7 @@
       <c r="G3" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="26">
         <v>44984</v>
       </c>
     </row>
@@ -10471,7 +11158,7 @@
       <c r="G4" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>44984</v>
       </c>
     </row>
@@ -10519,7 +11206,7 @@
         <v>123.31</v>
       </c>
       <c r="G6" s="41"/>
-      <c r="H6" s="25">
+      <c r="H6" s="26">
         <v>44986</v>
       </c>
     </row>
@@ -10544,7 +11231,7 @@
         <v>61.32375</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10569,7 +11256,7 @@
         <v>137.5</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10594,7 +11281,7 @@
         <v>44.43525</v>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10619,7 +11306,7 @@
         <v>152.40825</v>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10644,7 +11331,7 @@
         <v>40.5</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10669,7 +11356,7 @@
         <v>89.4375</v>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10696,7 +11383,7 @@
       <c r="G13" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <v>44989</v>
       </c>
     </row>
@@ -10719,7 +11406,7 @@
       <c r="G14" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="26">
         <v>44986</v>
       </c>
     </row>
@@ -10746,7 +11433,7 @@
       <c r="G15" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>44986</v>
       </c>
     </row>
@@ -10771,7 +11458,7 @@
         <v>30.24</v>
       </c>
       <c r="G16" s="41"/>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>44986</v>
       </c>
     </row>
@@ -10845,11 +11532,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E12 E13 E16 E9:E11">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E17 E18 E14:E15 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E12 E13 E16 E9:E11">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -10934,12 +11621,12 @@
       <c r="E3" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>222.35625</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10959,12 +11646,12 @@
       <c r="E4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>313.632</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="25">
+      <c r="G4" s="25"/>
+      <c r="H4" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -10989,7 +11676,7 @@
         <v>262.08</v>
       </c>
       <c r="G5" s="43"/>
-      <c r="H5" s="25">
+      <c r="H5" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11013,8 +11700,8 @@
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>127.2384</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25">
+      <c r="G6" s="25"/>
+      <c r="H6" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11039,7 +11726,7 @@
         <v>61.32375</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="25">
+      <c r="H7" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11064,7 +11751,7 @@
         <v>1363.275</v>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25">
+      <c r="H8" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11091,7 +11778,7 @@
       <c r="G9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11118,7 +11805,7 @@
       <c r="G10" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11143,7 +11830,7 @@
         <v>77.5125</v>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25">
+      <c r="H11" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11170,7 +11857,7 @@
       <c r="G12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11197,7 +11884,7 @@
       <c r="G13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11224,7 +11911,7 @@
       <c r="G14" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11249,7 +11936,7 @@
         <v>173.88</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11276,7 +11963,7 @@
       <c r="G16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="26">
         <v>44985</v>
       </c>
     </row>
@@ -11350,11 +12037,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -11424,29 +12111,29 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>1</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>461</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>530</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>109.9485</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="25" t="s">
         <v>95</v>
       </c>
     </row>
@@ -11473,7 +12160,7 @@
       <c r="G4" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>95</v>
       </c>
     </row>
@@ -11500,34 +12187,34 @@
       <c r="G5" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="26" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="25">
         <v>2</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <v>410</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="25">
         <v>236</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="25">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v>87.084</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="25" t="s">
         <v>95</v>
       </c>
     </row>
@@ -11552,7 +12239,7 @@
         <v>61.32375</v>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="26" t="s">
         <v>99</v>
       </c>
     </row>
@@ -11567,7 +12254,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="41"/>
@@ -11580,7 +12267,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="41"/>
@@ -11593,7 +12280,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -11606,7 +12293,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -11619,7 +12306,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -11632,7 +12319,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -11645,7 +12332,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -11658,7 +12345,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -11671,7 +12358,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -11743,11 +12430,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5 E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -11817,80 +12504,80 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="25">
         <v>3</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <v>355</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="25">
         <v>325</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="25">
         <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
         <v>155.75625</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="25">
+      <c r="G3" s="25"/>
+      <c r="H3" s="26">
         <v>44991</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="25">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <v>314</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>295</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="25">
         <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
         <v>41.6835</v>
       </c>
       <c r="G4" s="42"/>
-      <c r="H4" s="25">
+      <c r="H4" s="26">
         <v>44991</v>
       </c>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="str">
+      <c r="E5" s="25"/>
+      <c r="F5" s="25" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
       <c r="G5" s="43"/>
-      <c r="H5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="str">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25" t="str">
         <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="23"/>
@@ -11903,7 +12590,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -11916,7 +12603,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="41"/>
@@ -11929,7 +12616,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="25"/>
+      <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="41"/>
@@ -11942,7 +12629,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="25"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -11955,7 +12642,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="25"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -11968,7 +12655,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -11981,7 +12668,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="25"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -11994,7 +12681,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -12007,7 +12694,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="25"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -12020,7 +12707,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -12092,11 +12779,11 @@
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E17 E18 E19:E21">
       <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E11 E12 E13 E15 E16 E9:E10">
-      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/发货笔记&日志.xlsx
+++ b/发货笔记&日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="18" activeTab="26"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="19" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="2023.02.17" sheetId="1" r:id="rId1"/>
@@ -34,16 +34,17 @@
     <sheet name="2023.05.13" sheetId="29" r:id="rId25"/>
     <sheet name="2023.05.20" sheetId="30" r:id="rId26"/>
     <sheet name="2023.05.25" sheetId="31" r:id="rId27"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId28"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId29"/>
-    <sheet name="兼容性报表" sheetId="6" r:id="rId30"/>
+    <sheet name="2023.05.26" sheetId="32" r:id="rId28"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId29"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId30"/>
+    <sheet name="兼容性报表" sheetId="6" r:id="rId31"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="218">
   <si>
     <t>0217 发货</t>
   </si>
@@ -658,6 +659,18 @@
   </si>
   <si>
     <t>安洋智能面板</t>
+  </si>
+  <si>
+    <t>05.26发货笔记</t>
+  </si>
+  <si>
+    <t>无锡陆辐面板</t>
+  </si>
+  <si>
+    <t>盛德包装面板</t>
+  </si>
+  <si>
+    <t>佛山富意德</t>
   </si>
   <si>
     <t>发货笔记&amp;日志.xls 兼容性报表</t>
@@ -1649,9 +1662,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1659,6 +1669,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2537,7 +2550,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -2550,7 +2563,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="31"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -2563,7 +2576,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -2576,7 +2589,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -2589,7 +2602,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -2602,7 +2615,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -2615,7 +2628,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -2628,7 +2641,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -2641,7 +2654,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -2654,7 +2667,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -2667,7 +2680,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -2680,7 +2693,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -2693,7 +2706,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -2706,7 +2719,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -2719,7 +2732,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2874,7 +2887,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -2887,7 +2900,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="31"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -2900,7 +2913,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -2913,7 +2926,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -2926,7 +2939,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -2939,7 +2952,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -2952,7 +2965,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -2965,7 +2978,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -2978,7 +2991,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -2991,7 +3004,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -3004,7 +3017,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -3017,7 +3030,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -3030,7 +3043,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -3043,7 +3056,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -3056,7 +3069,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3259,7 +3272,7 @@
       <c r="G7" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -3272,7 +3285,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="31"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -3285,7 +3298,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -3298,7 +3311,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -3311,7 +3324,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -3324,7 +3337,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -3337,7 +3350,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -3350,7 +3363,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -3363,7 +3376,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -3376,7 +3389,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -3389,7 +3402,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -3402,7 +3415,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -3415,7 +3428,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -3428,7 +3441,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -3441,7 +3454,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3632,7 +3645,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -3645,7 +3658,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="31"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -3658,7 +3671,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -3671,7 +3684,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -3684,7 +3697,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -3697,7 +3710,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -3710,7 +3723,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -3723,7 +3736,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -3736,7 +3749,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -3749,7 +3762,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -3762,7 +3775,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -3775,7 +3788,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -3788,7 +3801,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -3801,7 +3814,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -3814,7 +3827,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3979,7 +3992,7 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="31"/>
+      <c r="H7" s="30"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="23"/>
@@ -3992,7 +4005,7 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="31"/>
+      <c r="H8" s="30"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="23"/>
@@ -4005,7 +4018,7 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="31"/>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="23"/>
@@ -4018,7 +4031,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="30"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -4031,7 +4044,7 @@
         <v/>
       </c>
       <c r="G11" s="23"/>
-      <c r="H11" s="31"/>
+      <c r="H11" s="30"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="23"/>
@@ -4044,7 +4057,7 @@
         <v/>
       </c>
       <c r="G12" s="23"/>
-      <c r="H12" s="31"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="23"/>
@@ -4057,7 +4070,7 @@
         <v/>
       </c>
       <c r="G13" s="23"/>
-      <c r="H13" s="31"/>
+      <c r="H13" s="30"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="23"/>
@@ -4070,7 +4083,7 @@
         <v/>
       </c>
       <c r="G14" s="23"/>
-      <c r="H14" s="31"/>
+      <c r="H14" s="30"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="23"/>
@@ -4083,7 +4096,7 @@
         <v/>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="31"/>
+      <c r="H15" s="30"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="23"/>
@@ -4096,7 +4109,7 @@
         <v/>
       </c>
       <c r="G16" s="23"/>
-      <c r="H16" s="31"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="23"/>
@@ -4109,7 +4122,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -4122,7 +4135,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -4135,7 +4148,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -4148,7 +4161,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -4161,7 +4174,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4624,7 +4637,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -4637,7 +4650,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -4650,7 +4663,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -4663,7 +4676,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -4676,7 +4689,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4995,7 +5008,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -5008,7 +5021,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -5021,7 +5034,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -5034,7 +5047,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -5047,7 +5060,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5378,7 +5391,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -5391,7 +5404,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -5404,7 +5417,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -5417,7 +5430,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -5430,7 +5443,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5852,7 +5865,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -5865,7 +5878,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -5878,7 +5891,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -5891,7 +5904,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -5904,7 +5917,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5985,7 +5998,7 @@
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B3" s="23">
@@ -6007,7 +6020,7 @@
       <c r="G3" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <v>45022</v>
       </c>
     </row>
@@ -6034,7 +6047,7 @@
       <c r="G4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="29">
         <v>45022</v>
       </c>
     </row>
@@ -6061,7 +6074,7 @@
       <c r="G5" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="29">
         <v>45022</v>
       </c>
     </row>
@@ -6088,7 +6101,7 @@
       <c r="G6" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="29">
         <v>45022</v>
       </c>
     </row>
@@ -6115,12 +6128,12 @@
       <c r="G7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="30">
+      <c r="H7" s="29">
         <v>45022</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B8" s="23">
@@ -6142,12 +6155,12 @@
       <c r="G8" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="30">
+      <c r="H8" s="29">
         <v>45022</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B9" s="23">
@@ -6169,12 +6182,12 @@
       <c r="G9" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>45022</v>
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B10" s="23">
@@ -6196,7 +6209,7 @@
       <c r="G10" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="29">
         <v>45022</v>
       </c>
     </row>
@@ -6289,7 +6302,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -6302,7 +6315,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -6315,7 +6328,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -6328,7 +6341,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -6341,7 +6354,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6906,10 +6919,10 @@
         <v/>
       </c>
       <c r="G7" s="23"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -6919,10 +6932,10 @@
         <v/>
       </c>
       <c r="G8" s="23"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -6932,10 +6945,10 @@
         <v/>
       </c>
       <c r="G9" s="23"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -6945,7 +6958,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -7036,7 +7049,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -7049,7 +7062,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -7062,7 +7075,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -7075,7 +7088,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -7088,7 +7101,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7297,7 +7310,7 @@
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="28" t="s">
         <v>177</v>
       </c>
       <c r="B9" s="23">
@@ -7316,7 +7329,7 @@
       </c>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -7326,7 +7339,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -7417,7 +7430,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -7430,7 +7443,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -7443,7 +7456,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -7456,7 +7469,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -7469,7 +7482,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7688,7 +7701,7 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -7701,7 +7714,7 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -7711,7 +7724,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -7802,7 +7815,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -7815,7 +7828,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -7828,7 +7841,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -7841,7 +7854,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -7854,7 +7867,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8025,7 +8038,7 @@
       <c r="H8" s="26"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -8038,7 +8051,7 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -8048,7 +8061,7 @@
         <v/>
       </c>
       <c r="G10" s="23"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -8139,7 +8152,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -8152,7 +8165,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -8165,7 +8178,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -8178,7 +8191,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -8191,7 +8204,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8443,29 +8456,29 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>1</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="28">
         <v>315</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="28">
         <v>327</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="24">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v>46.35225</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -8556,7 +8569,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -8569,7 +8582,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -8582,7 +8595,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -8595,7 +8608,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -8608,7 +8621,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8758,7 +8771,7 @@
       <c r="E5" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="31" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -8846,17 +8859,17 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="24" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -8947,7 +8960,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -8960,7 +8973,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -8973,7 +8986,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -8986,7 +8999,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -8999,7 +9012,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9125,7 +9138,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="31" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9185,17 +9198,17 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="24" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -9286,7 +9299,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -9299,7 +9312,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -9312,7 +9325,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -9325,7 +9338,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -9338,7 +9351,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9363,7 +9376,7 @@
   <sheetPr/>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -9462,7 +9475,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
-      <c r="F5" s="28" t="str">
+      <c r="F5" s="31" t="str">
         <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
         <v/>
       </c>
@@ -9522,17 +9535,17 @@
       <c r="H9" s="26"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
       <c r="F10" s="24" t="str">
         <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
         <v/>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="23"/>
@@ -9623,7 +9636,7 @@
         <v/>
       </c>
       <c r="G17" s="23"/>
-      <c r="H17" s="31"/>
+      <c r="H17" s="30"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="23"/>
@@ -9636,7 +9649,7 @@
         <v/>
       </c>
       <c r="G18" s="23"/>
-      <c r="H18" s="31"/>
+      <c r="H18" s="30"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="23"/>
@@ -9649,7 +9662,7 @@
         <v/>
       </c>
       <c r="G19" s="23"/>
-      <c r="H19" s="31"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="23"/>
@@ -9662,7 +9675,7 @@
         <v/>
       </c>
       <c r="G20" s="23"/>
-      <c r="H20" s="31"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="23"/>
@@ -9675,7 +9688,7 @@
         <v/>
       </c>
       <c r="G21" s="23"/>
-      <c r="H21" s="31"/>
+      <c r="H21" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9698,14 +9711,378 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="17.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="9.175" customWidth="1"/>
+    <col min="3" max="4" width="8.00833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.675" customWidth="1"/>
+    <col min="6" max="7" width="14.3416666666667" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="17">
+        <f>SUM(F:F)</f>
+        <v>633.37725</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A3" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="23">
+        <v>4</v>
+      </c>
+      <c r="C3" s="23">
+        <v>330</v>
+      </c>
+      <c r="D3" s="23">
+        <v>245</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E3,"2MM氧化",B3*C3*D3*0.00045,"2.5MM氧化",B3*C3*D3*0.0005,"3MM氧化",B3*C3*D3*0.00055,""),公式不支持)</f>
+        <v>145.53</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H3" s="26"/>
+    </row>
+    <row r="4" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="23">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23">
+        <v>330</v>
+      </c>
+      <c r="D4" s="23">
+        <v>245</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E4,"2MM氧化",B4*C4*D4*0.00045,"2.5MM氧化",B4*C4*D4*0.0005,"3MM氧化",B4*C4*D4*0.00055,""),公式不支持)</f>
+        <v>72.765</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A5" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="23">
+        <v>1</v>
+      </c>
+      <c r="C5" s="23">
+        <v>555</v>
+      </c>
+      <c r="D5" s="23">
+        <v>260</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E5,"2MM氧化",B5*C5*D5*0.00045,"2.5MM氧化",B5*C5*D5*0.0005,"3MM氧化",B5*C5*D5*0.00055,""),公式不支持)</f>
+        <v>64.935</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A6" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="23">
+        <v>5</v>
+      </c>
+      <c r="C6" s="23">
+        <v>431</v>
+      </c>
+      <c r="D6" s="23">
+        <v>331</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E6,"2MM氧化",B6*C6*D6*0.00045,"2.5MM氧化",B6*C6*D6*0.0005,"3MM氧化",B6*C6*D6*0.00055,""),公式不支持)</f>
+        <v>320.98725</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A7" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23">
+        <v>270</v>
+      </c>
+      <c r="D7" s="23">
+        <v>240</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="24">
+        <f>IFERROR(_xlfn.SWITCH(E7,"2MM氧化",B7*C7*D7*0.00045,"2.5MM氧化",B7*C7*D7*0.0005,"3MM氧化",B7*C7*D7*0.00055,""),公式不支持)</f>
+        <v>29.16</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E8,"2MM氧化",B8*C8*D8*0.00045,"2.5MM氧化",B8*C8*D8*0.0005,"3MM氧化",B8*C8*D8*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E9,"2MM氧化",B9*C9*D9*0.00045,"2.5MM氧化",B9*C9*D9*0.0005,"3MM氧化",B9*C9*D9*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G9" s="23"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E10,"2MM氧化",B10*C10*D10*0.00045,"2.5MM氧化",B10*C10*D10*0.0005,"3MM氧化",B10*C10*D10*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E11,"2MM氧化",B11*C11*D11*0.00045,"2.5MM氧化",B11*C11*D11*0.0005,"3MM氧化",B11*C11*D11*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E12,"2MM氧化",B12*C12*D12*0.00045,"2.5MM氧化",B12*C12*D12*0.0005,"3MM氧化",B12*C12*D12*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G12" s="23"/>
+      <c r="H12" s="26"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E13,"2MM氧化",B13*C13*D13*0.00045,"2.5MM氧化",B13*C13*D13*0.0005,"3MM氧化",B13*C13*D13*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="26"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E14,"2MM氧化",B14*C14*D14*0.00045,"2.5MM氧化",B14*C14*D14*0.0005,"3MM氧化",B14*C14*D14*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="26"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E15,"2MM氧化",B15*C15*D15*0.00045,"2.5MM氧化",B15*C15*D15*0.0005,"3MM氧化",B15*C15*D15*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E16,"2MM氧化",B16*C16*D16*0.00045,"2.5MM氧化",B16*C16*D16*0.0005,"3MM氧化",B16*C16*D16*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E17,"2MM氧化",B17*C17*D17*0.00045,"2.5MM氧化",B17*C17*D17*0.0005,"3MM氧化",B17*C17*D17*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G17" s="23"/>
+      <c r="H17" s="30"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E18,"2MM氧化",B18*C18*D18*0.00045,"2.5MM氧化",B18*C18*D18*0.0005,"3MM氧化",B18*C18*D18*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E19,"2MM氧化",B19*C19*D19*0.00045,"2.5MM氧化",B19*C19*D19*0.0005,"3MM氧化",B19*C19*D19*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E20,"2MM氧化",B20*C20*D20*0.00045,"2.5MM氧化",B20*C20*D20*0.0005,"3MM氧化",B20*C20*D20*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="30"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1" spans="1:8">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24" t="str">
+        <f>IFERROR(_xlfn.SWITCH(E21,"2MM氧化",B21*C21*D21*0.00045,"2.5MM氧化",B21*C21*D21*0.0005,"3MM氧化",B21*C21*D21*0.00055,""),公式不支持)</f>
+        <v/>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3 E4 E5 E6 E7 E8 E9 E10 E11 E15 E12:E13">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,来料型材,其他"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E14 E16 E17 E18 E19:E21">
+      <formula1>"2MM氧化,3MM氧化,2.5MM氧化,客户来料,其他"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
@@ -10153,6 +10530,23 @@
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10170,7 +10564,7 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -10179,7 +10573,7 @@
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -10195,7 +10589,7 @@
     </row>
     <row r="4" ht="42.75" spans="2:6">
       <c r="B4" s="3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
@@ -10211,15 +10605,15 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" ht="15" spans="2:6">
@@ -10231,7 +10625,7 @@
     </row>
     <row r="8" ht="42.75" spans="2:6">
       <c r="B8" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
@@ -10245,10 +10639,10 @@
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="63" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -11181,7 +11575,7 @@
       <c r="G5" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="28" t="s">
         <v>72</v>
       </c>
     </row>
